--- a/Employee Work Productivity Analysis.xlsx
+++ b/Employee Work Productivity Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7b6fa3d2480fc23/Desktop/PWSkills/Excel/Module 3/Excel Assignment 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="11_946C2C74AA10D1C6D9A0D137CAB3D0636DB022F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A364088F-4256-4A07-8F8B-F80904A7FC95}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="11_946C2C74AA10D1C6D9A0D137CAB3D0636DB022F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB59334E-89E2-44CB-A269-291CDE23C9CE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -344,78 +344,6 @@
       </rPr>
       <t xml:space="preserve"> Performance Rating of 5.</t>
     </r>
-  </si>
-  <si>
-    <t>Solution 1-&gt;</t>
-  </si>
-  <si>
-    <t>First sorted employees in descending order based on Productivity_Score and filtered the top 5 employees from them by going to Number Filters.</t>
-  </si>
-  <si>
-    <t>Then copied and pasted the result in Top5ProductiveEmployees sheet and created a bar chart to visualise the result.</t>
-  </si>
-  <si>
-    <t>Solution 2-&gt;</t>
-  </si>
-  <si>
-    <t>Created a pivot table in DepartmentProductivityVariation sheet to check the standard deviation of productivity scores within each department to assess consistency.</t>
-  </si>
-  <si>
-    <t>Then concluded which department has the least variation in employee productivity from the pivot table.</t>
-  </si>
-  <si>
-    <t>Solution 3-&gt;</t>
-  </si>
-  <si>
-    <t>Created a new column PEI(Productivity Efficiency Index) and calculated the same using formula (F2*G2)/D2 as instructed.</t>
-  </si>
-  <si>
-    <t>Then sorted employees in descending order based on PEI(Productivity Efficiency Index) and filtered the top 3 employees from them by going to Number Filters.</t>
-  </si>
-  <si>
-    <t>Then copied and pasted the result in Top3PEI sheet.</t>
-  </si>
-  <si>
-    <t>Solution 4-&gt;</t>
-  </si>
-  <si>
-    <t>a.</t>
-  </si>
-  <si>
-    <t>Calculated the correlation coefficient between Performance_Rating and Hours_Worked using formula CORREL(G2:G26,D2:D26) as well as Performance_Rating and Tasks_Completed using formula CORREL(G2:G26,E2:E26).</t>
-  </si>
-  <si>
-    <t>Then concluded  which has a stronger influence on Performance Rating based on correlation coefficient.</t>
-  </si>
-  <si>
-    <t>b.</t>
-  </si>
-  <si>
-    <t>Created a scatter plot to visualize the relationship between Hours_Worked and Productivity_Score in sheet ProductivityWorkHourCorrelation.</t>
-  </si>
-  <si>
-    <t>Then concluded if there is a positive or negative correlation based on the scatter plot.</t>
-  </si>
-  <si>
-    <t>Solution 5-&gt;</t>
-  </si>
-  <si>
-    <t>Created a column Underutilized_High_Performer to find employees who have a Performance Rating≥4 and worked less than the average hours of all employees using formula IF(AND(G2&gt;=4,D2&lt;AVERAGE($D$2:$D$26)),"Yes","No").</t>
-  </si>
-  <si>
-    <t>Then filtered employees having value as Yes in this column, and copied and pasted the result in sheet  UnderutilizedHighPerformers.</t>
-  </si>
-  <si>
-    <t>Solution 6-&gt;</t>
-  </si>
-  <si>
-    <t>Added a column Tasks_per_Hour and calculated values using formula E2/D2 as instructed.</t>
-  </si>
-  <si>
-    <t>Then found the most task-efficient employee based on this metric using formula INDEX(B2:B26,MATCH(MAX(J2:J26),J2:J26,0)) and the employee's department using formula XLOOKUP(L11,B2:B26,C2:C26).</t>
-  </si>
-  <si>
-    <t>Then compared the employee's performance score and rating.</t>
   </si>
 </sst>
 </file>
@@ -3531,8 +3459,8 @@
   </sheetPr>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4497,124 +4425,76 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="A29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="A31" s="19"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="A33" s="9"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="A34" s="19"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="A35" s="19"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="A37" s="9"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="A38" s="19"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="A39" s="19"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="A40" s="19"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A42" s="9"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A43" s="9"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>62</v>
-      </c>
+      <c r="A44" s="19"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="A45" s="19"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="A47" s="9"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>65</v>
-      </c>
+      <c r="A48" s="19"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="A49" s="19"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>68</v>
-      </c>
+      <c r="A52" s="19"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="A53" s="19"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>71</v>
-      </c>
+      <c r="A56" s="19"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="A57" s="19"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>73</v>
-      </c>
+      <c r="A58" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -5010,7 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497C5531-AA8C-44E0-A5CC-3ABFB24DDB2F}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
